--- a/docs/Collector1/Collector1_02.08.24_output.xlsx
+++ b/docs/Collector1/Collector1_02.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,72 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,1139 +510,1437 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1730744020.5465326</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>1730744031.4854574</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1730744020.5465326.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>./test_images/SBER1730744031.4854574.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="L3" t="n">
         <v>286.16</v>
       </c>
-      <c r="J3" t="n">
+      <c r="M3" t="n">
         <v>285.99</v>
       </c>
-      <c r="K3" t="n">
+      <c r="N3" t="n">
         <v>-0.1700000000000159</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1730744031.6743643</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730744031.6743643.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="L4" t="n">
         <v>131.8</v>
       </c>
-      <c r="J4" t="n">
-        <v>131.8</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
+      <c r="M4" t="n">
+        <v>131.29</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.5100000000000193</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-0.39</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1730744042.466571</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730744042.466571.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I5" t="n">
+      <c r="L5" t="n">
         <v>6678.5</v>
       </c>
-      <c r="J5" t="n">
-        <v>6678.5</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
+      <c r="M5" t="n">
+        <v>6599</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-79.5</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-1.19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1730744053.0170007</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730744053.0170007.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I6" t="n">
+      <c r="L6" t="n">
         <v>506.9</v>
       </c>
-      <c r="J6" t="n">
-        <v>506.9</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
+      <c r="M6" t="n">
+        <v>504.95</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-1.949999999999989</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-0.38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1730744063.4257755</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>1730744073.4630342</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730744063.4257755.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730744073.4630342.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I7" t="n">
+      <c r="L7" t="n">
         <v>229.21</v>
       </c>
-      <c r="J7" t="n">
+      <c r="M7" t="n">
         <v>230.52</v>
       </c>
-      <c r="K7" t="n">
+      <c r="N7" t="n">
         <v>1.310000000000002</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.5700000000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6</v>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1730744074.0297728</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730744074.0297728.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I8" t="n">
+      <c r="L8" t="n">
         <v>1030.6</v>
       </c>
-      <c r="J8" t="n">
-        <v>1030.6</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
+      <c r="M8" t="n">
+        <v>1020.4</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-10.19999999999993</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-0.9900000000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7</v>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1730744084.776033</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730744084.776033.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I9" t="n">
+      <c r="L9" t="n">
         <v>128.52</v>
       </c>
-      <c r="J9" t="n">
-        <v>128.52</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
+      <c r="M9" t="n">
+        <v>127.7</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.8200000000000074</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-0.64</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1730744095.2709572</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>1730744101.551817</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730744095.2709572.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730744101.551817.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I10" t="n">
+      <c r="L10" t="n">
         <v>164.36</v>
       </c>
-      <c r="J10" t="n">
+      <c r="M10" t="n">
         <v>166.7</v>
       </c>
-      <c r="K10" t="n">
+      <c r="N10" t="n">
         <v>2.339999999999975</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.42</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="n">
+        <v>9</v>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1730744104.6590662</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>1730744105.4736943</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730744104.6590662.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730744105.4736943.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I11" t="n">
+      <c r="L11" t="n">
         <v>164.88</v>
       </c>
-      <c r="J11" t="n">
+      <c r="M11" t="n">
         <v>165.7</v>
       </c>
-      <c r="K11" t="n">
+      <c r="N11" t="n">
         <v>0.8199999999999932</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="n">
+        <v>10</v>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1730744105.8340187</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>1730744115.7592697</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730744105.8340187.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730744115.7592697.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I12" t="n">
+      <c r="L12" t="n">
         <v>50.37</v>
       </c>
-      <c r="J12" t="n">
+      <c r="M12" t="n">
         <v>50.4</v>
       </c>
-      <c r="K12" t="n">
+      <c r="N12" t="n">
         <v>0.03000000000000114</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="n">
+        <v>11</v>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1730744116.4299886</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>1730744126.2929792</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730744116.4299886.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730744126.2929792.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I13" t="n">
+      <c r="L13" t="n">
         <v>1403.8</v>
       </c>
-      <c r="J13" t="n">
+      <c r="M13" t="n">
         <v>1405.4</v>
       </c>
-      <c r="K13" t="n">
+      <c r="N13" t="n">
         <v>1.600000000000136</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="n">
+        <v>12</v>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1730744126.7851791</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730744126.7851791.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I14" t="n">
+      <c r="L14" t="n">
         <v>60.38</v>
       </c>
-      <c r="J14" t="n">
-        <v>60.38</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
+      <c r="M14" t="n">
+        <v>60.26</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-0.1200000000000045</v>
+      </c>
+      <c r="O14" t="n">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="n">
+        <v>13</v>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1730744136.9414704</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/VTBR1730744136.9414704.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I15" t="n">
+      <c r="L15" t="n">
         <v>97.39</v>
       </c>
-      <c r="J15" t="n">
-        <v>97.39</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
+      <c r="M15" t="n">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.2099999999999937</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="n">
+        <v>14</v>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1730744138.2287931</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>1730744148.0880117</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/SELG1730744138.2287931.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>./test_images/SELG1730744148.0880117.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I16" t="n">
+      <c r="L16" t="n">
         <v>57.13</v>
       </c>
-      <c r="J16" t="n">
+      <c r="M16" t="n">
         <v>57.12</v>
       </c>
-      <c r="K16" t="n">
+      <c r="N16" t="n">
         <v>-0.01000000000000512</v>
+      </c>
+      <c r="O16" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="n">
+        <v>15</v>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1730744148.4588103</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>1730744154.67163</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730744148.4588103.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730744154.67163.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I17" t="n">
+      <c r="L17" t="n">
         <v>142.7</v>
       </c>
-      <c r="J17" t="n">
+      <c r="M17" t="n">
         <v>146.18</v>
       </c>
-      <c r="K17" t="n">
+      <c r="N17" t="n">
         <v>3.480000000000018</v>
+      </c>
+      <c r="O17" t="n">
+        <v>2.44</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="n">
+        <v>16</v>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1730744158.896216</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>1730744168.2321732</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730744158.896216.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730744168.2321732.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I18" t="n">
+      <c r="L18" t="n">
         <v>20.764</v>
       </c>
-      <c r="J18" t="n">
+      <c r="M18" t="n">
         <v>20.878</v>
       </c>
-      <c r="K18" t="n">
+      <c r="N18" t="n">
         <v>0.1140000000000008</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.5499999999999999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="n">
+        <v>17</v>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1730744169.1102839</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>1730744177.5448883</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730744169.1102839.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730744177.5448883.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I19" t="n">
+      <c r="L19" t="n">
         <v>677.25</v>
       </c>
-      <c r="J19" t="n">
+      <c r="M19" t="n">
         <v>673.9</v>
       </c>
-      <c r="K19" t="n">
+      <c r="N19" t="n">
         <v>-3.350000000000023</v>
+      </c>
+      <c r="O19" t="n">
+        <v>-0.49</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="n">
+        <v>18</v>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1730744179.545649</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>1730744181.4574692</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/FEES1730744179.545649.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>./test_images/FEES1730744181.4574692.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I20" t="n">
+      <c r="L20" t="n">
         <v>0.09910000000000001</v>
       </c>
-      <c r="J20" t="n">
+      <c r="M20" t="n">
         <v>0.10084</v>
       </c>
-      <c r="K20" t="n">
-        <v>0.001740000000000005</v>
+      <c r="N20" t="n">
+        <v>0.001739999999999992</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.76</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="n">
+        <v>19</v>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1730744185.4769042</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/FEES1730744185.4769042.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I21" t="n">
+      <c r="L21" t="n">
         <v>0.09864000000000001</v>
       </c>
-      <c r="J21" t="n">
-        <v>0.09864000000000001</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
+      <c r="M21" t="n">
+        <v>0.09916</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.0005199999999999927</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.53</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="n">
+        <v>20</v>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1730744189.8988113</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/HYDR1730744189.8988113.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I22" t="n">
+      <c r="L22" t="n">
         <v>0.5979</v>
       </c>
-      <c r="J22" t="n">
-        <v>0.5979</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
+      <c r="M22" t="n">
+        <v>0.6022</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.004299999999999971</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.72</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="n">
+        <v>21</v>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1730744199.1783645</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>1730744199.6995125</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/MXI1730744199.1783645.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>./test_images/MXI1730744199.6995125.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I23" t="n">
+      <c r="L23" t="n">
         <v>2981.65</v>
       </c>
-      <c r="J23" t="n">
+      <c r="M23" t="n">
         <v>2999.4</v>
       </c>
-      <c r="K23" t="n">
+      <c r="N23" t="n">
         <v>17.75</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="n">
+        <v>22</v>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1730744200.7469838</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>1730744206.182197</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/MXI1730744200.7469838.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>./test_images/MXI1730744206.182197.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I24" t="n">
+      <c r="L24" t="n">
         <v>2981</v>
       </c>
-      <c r="J24" t="n">
+      <c r="M24" t="n">
         <v>2973.7</v>
       </c>
-      <c r="K24" t="n">
+      <c r="N24" t="n">
         <v>-7.300000000000182</v>
+      </c>
+      <c r="O24" t="n">
+        <v>-0.24</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="n">
+        <v>23</v>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1730744207.738446</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>1730744211.0946934</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/MXI1730744207.738446.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>./test_images/MXI1730744211.0946934.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I25" t="n">
+      <c r="L25" t="n">
         <v>2961.05</v>
       </c>
-      <c r="J25" t="n">
+      <c r="M25" t="n">
         <v>2967.2</v>
       </c>
-      <c r="K25" t="n">
+      <c r="N25" t="n">
         <v>6.149999999999636</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="n">
+        <v>24</v>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1730744211.441647</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730744211.441647.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>Collector1</t>
         </is>
       </c>
-      <c r="I26" t="n">
+      <c r="L26" t="n">
         <v>34.43</v>
       </c>
-      <c r="J26" t="n">
-        <v>34.43</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
+      <c r="M26" t="n">
+        <v>34.22</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.2100000000000009</v>
+      </c>
+      <c r="O26" t="n">
+        <v>-0.61</v>
       </c>
     </row>
   </sheetData>
@@ -1636,7 +1954,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1660,6 +1978,21 @@
           <t>count</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1673,6 +2006,15 @@
       <c r="C2" t="n">
         <v>3</v>
       </c>
+      <c r="D2" t="n">
+        <v>5.533333333333151</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1686,6 +2028,15 @@
       <c r="C3" t="n">
         <v>2</v>
       </c>
+      <c r="D3" t="n">
+        <v>1.579999999999984</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.96</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1694,11 +2045,20 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.001740000000000005</v>
+        <v>0.002259999999999984</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
+      <c r="D4" t="n">
+        <v>0.001129999999999992</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.14</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1707,11 +2067,20 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.2099999999999937</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
+      <c r="D5" t="n">
+        <v>0.2099999999999937</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1725,6 +2094,15 @@
       <c r="C6" t="n">
         <v>1</v>
       </c>
+      <c r="D6" t="n">
+        <v>3.480000000000018</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2.44</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1738,6 +2116,15 @@
       <c r="C7" t="n">
         <v>1</v>
       </c>
+      <c r="D7" t="n">
+        <v>-3.350000000000023</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.49</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.49</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1751,6 +2138,15 @@
       <c r="C8" t="n">
         <v>1</v>
       </c>
+      <c r="D8" t="n">
+        <v>-0.01000000000000512</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.02</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1764,6 +2160,15 @@
       <c r="C9" t="n">
         <v>1</v>
       </c>
+      <c r="D9" t="n">
+        <v>-0.1700000000000159</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.06</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1772,11 +2177,20 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>-0.2100000000000009</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
       </c>
+      <c r="D10" t="n">
+        <v>-0.2100000000000009</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.61</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.61</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1785,11 +2199,20 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-1.949999999999989</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
       </c>
+      <c r="D11" t="n">
+        <v>-1.949999999999989</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.38</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.38</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1798,11 +2221,20 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>-10.19999999999993</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
       </c>
+      <c r="D12" t="n">
+        <v>-10.19999999999993</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.9900000000000001</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.99</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1816,6 +2248,15 @@
       <c r="C13" t="n">
         <v>1</v>
       </c>
+      <c r="D13" t="n">
+        <v>0.1140000000000008</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5499999999999999</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.55</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1824,11 +2265,20 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-0.1200000000000045</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
       </c>
+      <c r="D14" t="n">
+        <v>-0.1200000000000045</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.2</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1842,6 +2292,15 @@
       <c r="C15" t="n">
         <v>1</v>
       </c>
+      <c r="D15" t="n">
+        <v>1.310000000000002</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.57</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1855,6 +2314,15 @@
       <c r="C16" t="n">
         <v>1</v>
       </c>
+      <c r="D16" t="n">
+        <v>0.03000000000000114</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1863,11 +2331,20 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-79.5</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
       </c>
+      <c r="D17" t="n">
+        <v>-79.5</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-1.19</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-1.19</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1876,11 +2353,20 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>0.004299999999999971</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
       </c>
+      <c r="D18" t="n">
+        <v>0.004299999999999971</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.72</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1889,11 +2375,20 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>-0.8200000000000074</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
+      <c r="D19" t="n">
+        <v>-0.8200000000000074</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-0.64</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.64</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1902,11 +2397,20 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-0.5100000000000193</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
       </c>
+      <c r="D20" t="n">
+        <v>-0.5100000000000193</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.39</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1920,6 +2424,15 @@
       <c r="C21" t="n">
         <v>1</v>
       </c>
+      <c r="D21" t="n">
+        <v>1.600000000000136</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1933,6 +2446,11 @@
       <c r="C22" t="n">
         <v>0</v>
       </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
